--- a/timrlink.net.CLI.Test/data/projecttime_two_users.xlsx
+++ b/timrlink.net.CLI.Test/data/projecttime_two_users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgugarel/Projects/troii/timrlink/timrlink.net/timrlink.net.CLI.Test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EB1F11-2F5B-F043-BF94-38307FE8707F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6805D472-147C-0840-844C-688766CA60D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="4440" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9380" yWindow="1240" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timr" sheetId="1" r:id="rId1"/>
@@ -180,12 +180,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +504,7 @@
   <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -511,11 +512,12 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="10" width="10" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
@@ -848,7 +850,7 @@
         <v>43585</v>
       </c>
       <c r="J5" s="2">
-        <v>0.67499999999999993</v>
+        <v>43585.675000000003</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
@@ -856,8 +858,8 @@
       <c r="L5" s="1">
         <v>43585</v>
       </c>
-      <c r="M5" s="2">
-        <v>0.71666666666666667</v>
+      <c r="M5" s="5">
+        <v>43585.716666666667</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>

--- a/timrlink.net.CLI.Test/data/projecttime_two_users.xlsx
+++ b/timrlink.net.CLI.Test/data/projecttime_two_users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sgugarel/Projects/troii/timrlink/timrlink.net/timrlink.net.CLI.Test/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6805D472-147C-0840-844C-688766CA60D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E717092-E592-644B-9246-B4C19F89B114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9380" yWindow="1240" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9740" yWindow="4440" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timr" sheetId="1" r:id="rId1"/>
@@ -180,13 +180,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -512,12 +511,11 @@
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="9" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="13" width="10" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
@@ -732,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="U3" t="s">
         <v>0</v>
@@ -850,7 +848,7 @@
         <v>43585</v>
       </c>
       <c r="J5" s="2">
-        <v>43585.675000000003</v>
+        <v>0.67499999999999993</v>
       </c>
       <c r="K5" t="s">
         <v>28</v>
@@ -858,8 +856,8 @@
       <c r="L5" s="1">
         <v>43585</v>
       </c>
-      <c r="M5" s="5">
-        <v>43585.716666666667</v>
+      <c r="M5" s="2">
+        <v>0.71666666666666667</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
